--- a/tut05/output/0401ME17.xlsx
+++ b/tut05/output/0401ME17.xlsx
@@ -550,22 +550,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.244897959183673</v>
+        <v>8.24</v>
       </c>
       <c r="C6" t="n">
-        <v>7.113636363636363</v>
+        <v>7.11</v>
       </c>
       <c r="D6" t="n">
-        <v>8.106382978723405</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>8.285714285714286</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>7.956521739130435</v>
+        <v>7.96</v>
       </c>
       <c r="G6" t="n">
-        <v>7.739130434782608</v>
+        <v>7.74</v>
       </c>
       <c r="H6" t="n">
         <v>9</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.244897959183673</v>
+        <v>8.24</v>
       </c>
       <c r="C8" t="n">
-        <v>7.709677419354839</v>
+        <v>7.71</v>
       </c>
       <c r="D8" t="n">
-        <v>7.842857142857143</v>
+        <v>7.84</v>
       </c>
       <c r="E8" t="n">
-        <v>7.957671957671957</v>
+        <v>7.96</v>
       </c>
       <c r="F8" t="n">
-        <v>7.957446808510638</v>
+        <v>7.96</v>
       </c>
       <c r="G8" t="n">
-        <v>7.92170818505338</v>
+        <v>7.92</v>
       </c>
       <c r="H8" t="n">
-        <v>8.05607476635514</v>
+        <v>8.06</v>
       </c>
       <c r="I8" t="n">
-        <v>8.171745152354571</v>
+        <v>8.17</v>
       </c>
     </row>
   </sheetData>
